--- a/Lecture01/3_Data_Science_Simplified_Example_Features_Comments.xlsx
+++ b/Lecture01/3_Data_Science_Simplified_Example_Features_Comments.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Felix_ASUS_Docs\1A_Python_Projects\DATA601_Files\Lecture01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C697746-06EC-4362-8246-4548A96F283B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B83DD-A051-4BC1-B9F7-8E01C18E78AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="28800" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="example_data" sheetId="1" r:id="rId1"/>
-    <sheet name="README" sheetId="2" r:id="rId2"/>
+    <sheet name="README" sheetId="2" r:id="rId1"/>
+    <sheet name="example_data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -278,7 +278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>Item_serial_number</t>
   </si>
@@ -547,6 +547,9 @@
   <si>
     <t>The example in this spreadsheet serves to show various potential forms that data and features (a.k.a. attributes, characteristics or columns) can take. From categorical, to numerical, to lists and dictionary within feature values, one-hot-encoding, show some limitations of forms of data, potential errors that would be easy to spot, potential correlations between features (positive or negative) among other things.
 The discussion also included how a person would perform groupings and analogy to unsupervised machine learning clustering algorithms (e.g., kmeans). The discussion also included short analogy on classification algorithms given a categorical feature (e.g., brand) and classifying by brand given the other features.</t>
+  </si>
+  <si>
+    <t>(Customer 1: 5 stars, Customer 3: 2 stars)</t>
   </si>
 </sst>
 </file>
@@ -978,11 +981,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6F856-8429-43D8-927C-CFB74A50A5A4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="123.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -990,7 +1016,10 @@
     <col min="1" max="2" width="14.36328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.54296875" style="1" customWidth="1"/>
     <col min="4" max="4" width="23.81640625" style="1" customWidth="1"/>
-    <col min="5" max="28" width="8.7265625" style="1"/>
+    <col min="5" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="16.453125" style="1" customWidth="1"/>
+    <col min="9" max="27" width="8.7265625" style="1"/>
+    <col min="28" max="28" width="12.36328125" style="1" customWidth="1"/>
     <col min="29" max="29" width="24.26953125" style="1" customWidth="1"/>
     <col min="30" max="36" width="8.7265625" style="1"/>
     <col min="37" max="37" width="13" style="1" customWidth="1"/>
@@ -1374,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:42" ht="58" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>75466457</v>
       </c>
@@ -1449,6 +1478,9 @@
       </c>
       <c r="AA5" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>56</v>
@@ -1510,27 +1542,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B6F856-8429-43D8-927C-CFB74A50A5A4}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="123.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>